--- a/biology/Botanique/Asteridae/Asteridae.xlsx
+++ b/biology/Botanique/Asteridae/Asteridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asteridae sont une sous-classe de plantes dicotylédones.
-En classification classique de Cronquist (1981)[2] la sous-classe est divisée en 11 ordres :
+En classification classique de Cronquist (1981) la sous-classe est divisée en 11 ordres :
 sous-classe Asteridae
 ordre Asterales
 ordre Calycerales
@@ -496,7 +508,7 @@
 ordre Plantaginales
 ordre Rubiales
 ordre Scrophulariales
-En classification phylogénétique APG II (2003)[3] et classification phylogénétique APG III (2009)[4], cette sous-classe, nommée « asterids » en anglais, est devenue un clade et est plus volontiers nommée sous son nom français Astéridées. Ayant un contenu bien différent en APG III, Astéridées est décrit dans un autre article.
+En classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009), cette sous-classe, nommée « asterids » en anglais, est devenue un clade et est plus volontiers nommée sous son nom français Astéridées. Ayant un contenu bien différent en APG III, Astéridées est décrit dans un autre article.
 Dans d'autres classifications il y a des groupes comparables, comme la sous-classe des Sympetalae (en classification de Wettstein, 1935).
 </t>
         </is>
